--- a/list.xlsx
+++ b/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\CP1PEPF0000737D\EXCELCNV\e17ad777-84e6-4209-b375-033162e1f3b7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A1EDDA-0A67-4FE6-BC19-E78E9FD6F5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7CEEE5-838B-45C5-BE92-F5E560BEF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{61358D06-6CBD-4859-AF41-96104BAD9DEE}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>certifiedName</t>
-  </si>
-  <si>
-    <t>attendeeName</t>
+    <t>memberName</t>
+  </si>
+  <si>
+    <t>workshopName</t>
   </si>
   <si>
     <t>heldOn</t>
@@ -512,7 +512,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\CP1PEPF0000737D\EXCELCNV\e17ad777-84e6-4209-b375-033162e1f3b7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7CEEE5-838B-45C5-BE92-F5E560BEF8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C96D23-474A-4769-99E2-F2E098790FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{61358D06-6CBD-4859-AF41-96104BAD9DEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>memberName</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>Patricia Jack</t>
-  </si>
-  <si>
-    <t>Workshop: Internal IT 2</t>
-  </si>
-  <si>
-    <t>15th September 2024</t>
   </si>
 </sst>
 </file>
@@ -512,7 +506,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -552,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>111123</v>
@@ -563,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
         <v>111122</v>
